--- a/ProjectPlan/misc/gantt-chart_L.xlsx
+++ b/ProjectPlan/misc/gantt-chart_L.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fazi/Desktop/irp-acse-fk4517/ProjectPlan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fazi/Desktop/irp-acse-fk4517/ProjectPlan/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFAC989-35FB-264B-94A9-CEE1EDAD2ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F26545-BB3E-7B44-98E0-B99E372908B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{321AA13A-52DF-024B-B440-65B5AD92623C}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Test Library</t>
   </si>
   <si>
-    <t>Write Independent Research Report</t>
-  </si>
-  <si>
     <t>Phase 3: Summary</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Review Best Practices</t>
+  </si>
+  <si>
+    <t>Write Independent Research Report + Presentation</t>
   </si>
 </sst>
 </file>
@@ -577,19 +577,19 @@
   <dimension ref="B1:R19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q19"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="1.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
@@ -812,7 +812,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="10"/>
@@ -872,7 +872,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -912,7 +912,7 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="10"/>
@@ -925,14 +925,14 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -952,7 +952,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="6"/>
